--- a/data/trans_orig/P29_R2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P29_R2_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>16218</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7417</v>
+        <v>8128</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31740</v>
+        <v>31602</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03976949986583136</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01818705148407039</v>
+        <v>0.01993232062117061</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07783410357666186</v>
+        <v>0.07749601683415311</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14261</v>
+        <v>12202</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006741365009701746</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03933958559053789</v>
+        <v>0.03365831115227551</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -783,19 +783,19 @@
         <v>18662</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9682</v>
+        <v>8718</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35259</v>
+        <v>32486</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.02422618415149202</v>
+        <v>0.02422618415149203</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01256903992217608</v>
+        <v>0.01131761115847704</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04577248205006976</v>
+        <v>0.04217234498877648</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>391575</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>376053</v>
+        <v>376191</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>400376</v>
+        <v>399665</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9602305001341689</v>
+        <v>0.9602305001341687</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9221658964233377</v>
+        <v>0.922503983165847</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9818129485159296</v>
+        <v>0.9800676793788293</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>206</v>
@@ -833,7 +833,7 @@
         <v>360068</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>348251</v>
+        <v>350310</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>362512</v>
@@ -842,7 +842,7 @@
         <v>0.9932586349902982</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9606604144094627</v>
+        <v>0.9663416888477246</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -854,19 +854,19 @@
         <v>751643</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>735046</v>
+        <v>737819</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>760623</v>
+        <v>761587</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9757738158485082</v>
+        <v>0.9757738158485079</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9542275179499301</v>
+        <v>0.9578276550112235</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9874309600778238</v>
+        <v>0.9886823888415233</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>42001</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28912</v>
+        <v>29220</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>59361</v>
+        <v>58536</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08807279029140962</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06062537319674592</v>
+        <v>0.06127216210956458</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1244749079229782</v>
+        <v>0.1227453488791567</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -979,19 +979,19 @@
         <v>13168</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7202</v>
+        <v>7489</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22051</v>
+        <v>22834</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02633100137621034</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01440058086171952</v>
+        <v>0.01497530411402078</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04409330811582102</v>
+        <v>0.0456583703954794</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>43</v>
@@ -1000,19 +1000,19 @@
         <v>55169</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>41011</v>
+        <v>40311</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>74736</v>
+        <v>75733</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05646840794782267</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04197703407572208</v>
+        <v>0.04126046061532271</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07649606070278929</v>
+        <v>0.07751619860649081</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>434889</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>417529</v>
+        <v>418354</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>447978</v>
+        <v>447670</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9119272097085904</v>
+        <v>0.9119272097085903</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8755250920770216</v>
+        <v>0.8772546511208433</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.939374626803254</v>
+        <v>0.9387278378904353</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>446</v>
@@ -1050,19 +1050,19 @@
         <v>486935</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>478052</v>
+        <v>477269</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>492901</v>
+        <v>492614</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9736689986237896</v>
+        <v>0.9736689986237895</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.955906691884179</v>
+        <v>0.9543416296045207</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9855994191382805</v>
+        <v>0.9850246958859792</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>718</v>
@@ -1071,19 +1071,19 @@
         <v>921825</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>902258</v>
+        <v>901261</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>935983</v>
+        <v>936683</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9435315920521773</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9235039392972106</v>
+        <v>0.9224838013935092</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9580229659242779</v>
+        <v>0.9587395393846773</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>75733</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>59579</v>
+        <v>59563</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>94143</v>
+        <v>93365</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1222172602176852</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09614846798429141</v>
+        <v>0.09612213453769287</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1519265239976129</v>
+        <v>0.1506717344272438</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -1196,19 +1196,19 @@
         <v>13916</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8543</v>
+        <v>8381</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21963</v>
+        <v>22026</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02242668547958594</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01376730217948907</v>
+        <v>0.0135073376190221</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03539427433271373</v>
+        <v>0.03549645037640812</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>87</v>
@@ -1217,19 +1217,19 @@
         <v>89649</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>72711</v>
+        <v>72619</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>109311</v>
+        <v>109947</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07228756824650606</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05862937260686737</v>
+        <v>0.05855520117429237</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08814145881886744</v>
+        <v>0.08865449684899573</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>543926</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>525516</v>
+        <v>526294</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>560080</v>
+        <v>560096</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8777827397823149</v>
+        <v>0.8777827397823148</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8480734760023871</v>
+        <v>0.8493282655727561</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9038515320157086</v>
+        <v>0.9038778654623072</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>826</v>
@@ -1267,19 +1267,19 @@
         <v>606598</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>598551</v>
+        <v>598488</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>611971</v>
+        <v>612133</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9775733145204142</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9646057256672865</v>
+        <v>0.9645035496235917</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.986232697820511</v>
+        <v>0.9864926623809778</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1302</v>
@@ -1288,19 +1288,19 @@
         <v>1150524</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1130862</v>
+        <v>1130226</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1167462</v>
+        <v>1167554</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9277124317534939</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9118585411811325</v>
+        <v>0.9113455031510043</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9413706273931326</v>
+        <v>0.9414447988257075</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>90508</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>74388</v>
+        <v>73658</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>108955</v>
+        <v>109039</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1299937910655915</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1068412475087604</v>
+        <v>0.1057930090094893</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1564887129561147</v>
+        <v>0.1566082792493298</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -1413,19 +1413,19 @@
         <v>19005</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13145</v>
+        <v>12726</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28149</v>
+        <v>26761</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02581499139077718</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01785559843010692</v>
+        <v>0.01728677352654619</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03823585006676838</v>
+        <v>0.03635163429568873</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>118</v>
@@ -1434,19 +1434,19 @@
         <v>109513</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>91077</v>
+        <v>93064</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>131462</v>
+        <v>129750</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0764522324668034</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06358222649383692</v>
+        <v>0.06496927362201463</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09177494612822562</v>
+        <v>0.09058039109480577</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>605742</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>587295</v>
+        <v>587211</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>621862</v>
+        <v>622592</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8700062089344084</v>
+        <v>0.8700062089344086</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8435112870438852</v>
+        <v>0.8433917207506703</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8931587524912397</v>
+        <v>0.8942069909905108</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1111</v>
@@ -1484,19 +1484,19 @@
         <v>717179</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>708035</v>
+        <v>709423</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>723039</v>
+        <v>723458</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9741850086092229</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.961764149933233</v>
+        <v>0.9636483657043114</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9821444015698931</v>
+        <v>0.9827132264734537</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1683</v>
@@ -1505,19 +1505,19 @@
         <v>1322921</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1300972</v>
+        <v>1302684</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1341357</v>
+        <v>1339370</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9235477675331967</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9082250538717744</v>
+        <v>0.9094196089051942</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.936417773506163</v>
+        <v>0.9350307263779853</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>146274</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>126513</v>
+        <v>127083</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>168094</v>
+        <v>167450</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2404777978311914</v>
+        <v>0.2404777978311913</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2079897753337895</v>
+        <v>0.2089270823339944</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2763495402876224</v>
+        <v>0.275291904444477</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>49</v>
@@ -1630,19 +1630,19 @@
         <v>30171</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>22793</v>
+        <v>22671</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>38895</v>
+        <v>38779</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.0497242203413746</v>
+        <v>0.04972422034137462</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03756415563633873</v>
+        <v>0.03736425306028972</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06410278514103723</v>
+        <v>0.06391128407511379</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>209</v>
@@ -1651,19 +1651,19 @@
         <v>176445</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>155003</v>
+        <v>154963</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>200103</v>
+        <v>197715</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1452185555989183</v>
+        <v>0.1452185555989182</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1275713007291763</v>
+        <v>0.1275385059142059</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.164689530998453</v>
+        <v>0.1627241950024866</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>461991</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>440171</v>
+        <v>440815</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>481752</v>
+        <v>481182</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7595222021688088</v>
+        <v>0.7595222021688086</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7236504597123775</v>
+        <v>0.7247080955555227</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7920102246662105</v>
+        <v>0.7910729176660056</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>950</v>
@@ -1701,19 +1701,19 @@
         <v>576596</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>567872</v>
+        <v>567988</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>583974</v>
+        <v>584096</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9502757796586253</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9358972148589626</v>
+        <v>0.9360887159248861</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9624358443636614</v>
+        <v>0.9626357469397102</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1452</v>
@@ -1722,19 +1722,19 @@
         <v>1038587</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1014929</v>
+        <v>1017317</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1060029</v>
+        <v>1060069</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8547814444010816</v>
+        <v>0.8547814444010818</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8353104690015472</v>
+        <v>0.8372758049975135</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8724286992708237</v>
+        <v>0.8724614940857943</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>129576</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>114936</v>
+        <v>114989</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>145709</v>
+        <v>147369</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3190321537752751</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2829851863539829</v>
+        <v>0.2831174698042871</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3587530968043248</v>
+        <v>0.3628390913910086</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>52</v>
@@ -1847,19 +1847,19 @@
         <v>27852</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21061</v>
+        <v>20898</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35562</v>
+        <v>37318</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.0635188565195387</v>
+        <v>0.06351885651953872</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04803113436579646</v>
+        <v>0.04765856632823129</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08110084646339819</v>
+        <v>0.08510577448297729</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>234</v>
@@ -1868,19 +1868,19 @@
         <v>157428</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>139355</v>
+        <v>138580</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>177922</v>
+        <v>176550</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1863849323541371</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1649874804153741</v>
+        <v>0.1640691389539546</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2106485263116209</v>
+        <v>0.2090234072927463</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>276578</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>260445</v>
+        <v>258785</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>291218</v>
+        <v>291165</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6809678462247249</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6412469031956752</v>
+        <v>0.6371609086089914</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7170148136460173</v>
+        <v>0.7168825301957128</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>774</v>
@@ -1918,19 +1918,19 @@
         <v>410635</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>402925</v>
+        <v>401169</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>417426</v>
+        <v>417589</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9364811434804612</v>
+        <v>0.9364811434804613</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9188991535366017</v>
+        <v>0.9148942255170232</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9519688656342037</v>
+        <v>0.9523414336717688</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1161</v>
@@ -1939,19 +1939,19 @@
         <v>687213</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>666719</v>
+        <v>668091</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>705286</v>
+        <v>706061</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8136150676458629</v>
+        <v>0.813615067645863</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.789351473688379</v>
+        <v>0.7909765927072538</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8350125195846259</v>
+        <v>0.8359308610460451</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>74589</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>61994</v>
+        <v>61881</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>88078</v>
+        <v>86976</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2404576950156983</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1998535456693794</v>
+        <v>0.1994902818927325</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2839411612072198</v>
+        <v>0.280387729320323</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -2064,19 +2064,19 @@
         <v>12956</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8344</v>
+        <v>8147</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19748</v>
+        <v>20286</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.02802418406328186</v>
+        <v>0.02802418406328185</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01804827555698614</v>
+        <v>0.01762232107876963</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04271572053260883</v>
+        <v>0.04387872499505022</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>137</v>
@@ -2085,19 +2085,19 @@
         <v>87546</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>74474</v>
+        <v>73969</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>104356</v>
+        <v>102307</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1133260664215532</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09640568416395312</v>
+        <v>0.09575186622449763</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1350867894629356</v>
+        <v>0.1324345359570449</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>235609</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>222120</v>
+        <v>223222</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>248204</v>
+        <v>248317</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7595423049843015</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7160588387927802</v>
+        <v>0.719612270679677</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8001464543306207</v>
+        <v>0.8005097181072677</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>857</v>
@@ -2135,19 +2135,19 @@
         <v>449355</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>442563</v>
+        <v>442025</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>453967</v>
+        <v>454164</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.971975815936718</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.957284279467391</v>
+        <v>0.9561212750049496</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9819517244430136</v>
+        <v>0.9823776789212305</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1199</v>
@@ -2156,19 +2156,19 @@
         <v>684964</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>668154</v>
+        <v>670203</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>698036</v>
+        <v>698541</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8866739335784467</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8649132105370645</v>
+        <v>0.8675654640429551</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9035943158360469</v>
+        <v>0.9042481337755023</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>574900</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>528657</v>
+        <v>535099</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>617735</v>
+        <v>619834</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1630824753013031</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1499647344990363</v>
+        <v>0.1517920886448285</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.175233472421133</v>
+        <v>0.1758289925390184</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>183</v>
@@ -2281,19 +2281,19 @@
         <v>119512</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>102764</v>
+        <v>103359</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>138893</v>
+        <v>139966</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03206753535486157</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0275737690103387</v>
+        <v>0.02773340642727296</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03726779689148163</v>
+        <v>0.03755592366352876</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>838</v>
@@ -2302,19 +2302,19 @@
         <v>694412</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>650081</v>
+        <v>646837</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>738451</v>
+        <v>746994</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.09575334199999641</v>
+        <v>0.0957533419999964</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08964058213669704</v>
+        <v>0.08919326331497511</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1018259326698012</v>
+        <v>0.1030039939129263</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>2950309</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2907474</v>
+        <v>2905375</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2996552</v>
+        <v>2990110</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8369175246986968</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.824766527578867</v>
+        <v>0.8241710074609813</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8500352655009636</v>
+        <v>0.8482079113551714</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5170</v>
@@ -2352,19 +2352,19 @@
         <v>3607367</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3587986</v>
+        <v>3586913</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3624115</v>
+        <v>3623520</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9679324646451385</v>
+        <v>0.9679324646451386</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9627322031085183</v>
+        <v>0.9624440763364714</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9724262309896613</v>
+        <v>0.9722665935727275</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7884</v>
@@ -2373,19 +2373,19 @@
         <v>6557676</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6513637</v>
+        <v>6505094</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6602007</v>
+        <v>6605251</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9042466580000035</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8981740673301988</v>
+        <v>0.8969960060870737</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.910359417863303</v>
+        <v>0.910806736685025</v>
       </c>
     </row>
     <row r="27">
